--- a/notTidyHpInfo/images/TextbookOfHttp/FiguresTextbookOfHttp.xlsx
+++ b/notTidyHpInfo/images/TextbookOfHttp/FiguresTextbookOfHttp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="【原紙】" sheetId="1" r:id="rId1"/>
@@ -93,6 +93,1281 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="スマイル 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="266700"/>
+          <a:ext cx="933450" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
+            <a:t>ユーザ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="額縁 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223010" y="1379220"/>
+          <a:ext cx="2377440" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10278"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="下矢印 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="933450"/>
+          <a:ext cx="1200150" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="1733550"/>
+          <a:ext cx="1428750" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>test@test.com</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="角丸四角形 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2922270" y="1676400"/>
+          <a:ext cx="544830" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="下矢印 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="2266950"/>
+          <a:ext cx="1200150" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="直方体 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="2800350"/>
+          <a:ext cx="3467100" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10938"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="3048000"/>
+          <a:ext cx="3067050" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>$test_mail = CDI::param("address");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>open(MAIL,"|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/usr/lib/sendmail $test_mail</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>")</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="円形吹き出し 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="2141220"/>
+          <a:ext cx="1733550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78816"/>
+            <a:gd name="adj2" fmla="val 72917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サーバで、コマンドが発行される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="円形吹き出し 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630930" y="632460"/>
+          <a:ext cx="1200150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78816"/>
+            <a:gd name="adj2" fmla="val 72917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブラウザで入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="スマイル 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2000250" y="4533900"/>
+          <a:ext cx="933450" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>攻撃者</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>22859</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>125505</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="額縁 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1223009" y="5646420"/>
+          <a:ext cx="3169696" cy="754380"/>
+        </a:xfrm>
+        <a:prstGeom prst="bevel">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10278"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>メールアドレス</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="下矢印 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="5200650"/>
+          <a:ext cx="1200150" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1371600" y="6000750"/>
+          <a:ext cx="1962150" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>test@test.com ; rm -rf /</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="角丸四角形 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3722370" y="5943600"/>
+          <a:ext cx="544830" cy="323850"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="下矢印 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="6534150"/>
+          <a:ext cx="1200150" cy="400050"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>送信</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="直方体 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="933450" y="7067550"/>
+          <a:ext cx="4533900" cy="933450"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 10938"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="テキスト ボックス 18"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1066800" y="7315200"/>
+          <a:ext cx="3867150" cy="533400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>$test_mail = CDI::param("address");</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>open(MAIL,"|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>/usr/lib/sendmail $test_mail ; rm -rf /</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>")</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="円形吹き出し 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4400550" y="6408420"/>
+          <a:ext cx="1733550" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78816"/>
+            <a:gd name="adj2" fmla="val 72917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>サーバで、コマンドが発行される</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="円形吹き出し 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3630930" y="4899660"/>
+          <a:ext cx="1200150" cy="800100"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeEllipseCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -78816"/>
+            <a:gd name="adj2" fmla="val 72917"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ブラウザで入力</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1367,7 +2642,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8080,21 +9355,2487 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="D2:AS61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="BC39" sqref="BC39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16383" width="1.69921875" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16383" width="1.75" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.75" style="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+    </row>
+    <row r="3" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+    </row>
+    <row r="4" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+    </row>
+    <row r="5" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+    </row>
+    <row r="6" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+    </row>
+    <row r="7" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+    </row>
+    <row r="8" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+    </row>
+    <row r="9" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+    </row>
+    <row r="10" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+    </row>
+    <row r="11" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+    </row>
+    <row r="12" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+    </row>
+    <row r="13" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+    </row>
+    <row r="14" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+    </row>
+    <row r="15" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+    </row>
+    <row r="16" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+    </row>
+    <row r="17" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+    </row>
+    <row r="18" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+    </row>
+    <row r="19" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+    </row>
+    <row r="20" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+    </row>
+    <row r="21" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+    </row>
+    <row r="22" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+    </row>
+    <row r="23" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+    </row>
+    <row r="24" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+    </row>
+    <row r="25" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+    </row>
+    <row r="26" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+    </row>
+    <row r="27" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+    </row>
+    <row r="28" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+    </row>
+    <row r="29" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+    </row>
+    <row r="34" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+      <c r="AL34" s="2"/>
+      <c r="AM34" s="2"/>
+      <c r="AN34" s="2"/>
+      <c r="AO34" s="2"/>
+      <c r="AP34" s="2"/>
+      <c r="AQ34" s="2"/>
+      <c r="AR34" s="2"/>
+      <c r="AS34" s="2"/>
+    </row>
+    <row r="35" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+      <c r="AM35" s="2"/>
+      <c r="AN35" s="2"/>
+      <c r="AO35" s="2"/>
+      <c r="AP35" s="2"/>
+      <c r="AQ35" s="2"/>
+      <c r="AR35" s="2"/>
+      <c r="AS35" s="2"/>
+    </row>
+    <row r="36" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+      <c r="AL36" s="2"/>
+      <c r="AM36" s="2"/>
+      <c r="AN36" s="2"/>
+      <c r="AO36" s="2"/>
+      <c r="AP36" s="2"/>
+      <c r="AQ36" s="2"/>
+      <c r="AR36" s="2"/>
+      <c r="AS36" s="2"/>
+    </row>
+    <row r="37" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+      <c r="AL37" s="2"/>
+      <c r="AM37" s="2"/>
+      <c r="AN37" s="2"/>
+      <c r="AO37" s="2"/>
+      <c r="AP37" s="2"/>
+      <c r="AQ37" s="2"/>
+      <c r="AR37" s="2"/>
+      <c r="AS37" s="2"/>
+    </row>
+    <row r="38" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="2"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="2"/>
+      <c r="AL38" s="2"/>
+      <c r="AM38" s="2"/>
+      <c r="AN38" s="2"/>
+      <c r="AO38" s="2"/>
+      <c r="AP38" s="2"/>
+      <c r="AQ38" s="2"/>
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="2"/>
+    </row>
+    <row r="39" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+      <c r="AL39" s="2"/>
+      <c r="AM39" s="2"/>
+      <c r="AN39" s="2"/>
+      <c r="AO39" s="2"/>
+      <c r="AP39" s="2"/>
+      <c r="AQ39" s="2"/>
+      <c r="AR39" s="2"/>
+      <c r="AS39" s="2"/>
+    </row>
+    <row r="40" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+      <c r="AL40" s="2"/>
+      <c r="AM40" s="2"/>
+      <c r="AN40" s="2"/>
+      <c r="AO40" s="2"/>
+      <c r="AP40" s="2"/>
+      <c r="AQ40" s="2"/>
+      <c r="AR40" s="2"/>
+      <c r="AS40" s="2"/>
+    </row>
+    <row r="41" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+      <c r="AL41" s="2"/>
+      <c r="AM41" s="2"/>
+      <c r="AN41" s="2"/>
+      <c r="AO41" s="2"/>
+      <c r="AP41" s="2"/>
+      <c r="AQ41" s="2"/>
+      <c r="AR41" s="2"/>
+      <c r="AS41" s="2"/>
+    </row>
+    <row r="42" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+      <c r="AL42" s="2"/>
+      <c r="AM42" s="2"/>
+      <c r="AN42" s="2"/>
+      <c r="AO42" s="2"/>
+      <c r="AP42" s="2"/>
+      <c r="AQ42" s="2"/>
+      <c r="AR42" s="2"/>
+      <c r="AS42" s="2"/>
+    </row>
+    <row r="43" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+      <c r="AL43" s="2"/>
+      <c r="AM43" s="2"/>
+      <c r="AN43" s="2"/>
+      <c r="AO43" s="2"/>
+      <c r="AP43" s="2"/>
+      <c r="AQ43" s="2"/>
+      <c r="AR43" s="2"/>
+      <c r="AS43" s="2"/>
+    </row>
+    <row r="44" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+      <c r="AL44" s="2"/>
+      <c r="AM44" s="2"/>
+      <c r="AN44" s="2"/>
+      <c r="AO44" s="2"/>
+      <c r="AP44" s="2"/>
+      <c r="AQ44" s="2"/>
+      <c r="AR44" s="2"/>
+      <c r="AS44" s="2"/>
+    </row>
+    <row r="45" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+      <c r="AL45" s="2"/>
+      <c r="AM45" s="2"/>
+      <c r="AN45" s="2"/>
+      <c r="AO45" s="2"/>
+      <c r="AP45" s="2"/>
+      <c r="AQ45" s="2"/>
+      <c r="AR45" s="2"/>
+      <c r="AS45" s="2"/>
+    </row>
+    <row r="46" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
+      <c r="K46" s="2"/>
+      <c r="L46" s="2"/>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+      <c r="AL46" s="2"/>
+      <c r="AM46" s="2"/>
+      <c r="AN46" s="2"/>
+      <c r="AO46" s="2"/>
+      <c r="AP46" s="2"/>
+      <c r="AQ46" s="2"/>
+      <c r="AR46" s="2"/>
+      <c r="AS46" s="2"/>
+    </row>
+    <row r="47" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+      <c r="I47" s="2"/>
+      <c r="J47" s="2"/>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="M47" s="2"/>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+      <c r="AL47" s="2"/>
+      <c r="AM47" s="2"/>
+      <c r="AN47" s="2"/>
+      <c r="AO47" s="2"/>
+      <c r="AP47" s="2"/>
+      <c r="AQ47" s="2"/>
+      <c r="AR47" s="2"/>
+      <c r="AS47" s="2"/>
+    </row>
+    <row r="48" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+      <c r="I48" s="2"/>
+      <c r="J48" s="2"/>
+      <c r="K48" s="2"/>
+      <c r="L48" s="2"/>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+      <c r="AL48" s="2"/>
+      <c r="AM48" s="2"/>
+      <c r="AN48" s="2"/>
+      <c r="AO48" s="2"/>
+      <c r="AP48" s="2"/>
+      <c r="AQ48" s="2"/>
+      <c r="AR48" s="2"/>
+      <c r="AS48" s="2"/>
+    </row>
+    <row r="49" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="2"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="2"/>
+      <c r="AL49" s="2"/>
+      <c r="AM49" s="2"/>
+      <c r="AN49" s="2"/>
+      <c r="AO49" s="2"/>
+      <c r="AP49" s="2"/>
+      <c r="AQ49" s="2"/>
+      <c r="AR49" s="2"/>
+      <c r="AS49" s="2"/>
+    </row>
+    <row r="50" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="2"/>
+      <c r="Q50" s="2"/>
+      <c r="R50" s="2"/>
+      <c r="S50" s="2"/>
+      <c r="T50" s="2"/>
+      <c r="U50" s="2"/>
+      <c r="V50" s="2"/>
+      <c r="W50" s="2"/>
+      <c r="X50" s="2"/>
+      <c r="Y50" s="2"/>
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+      <c r="AC50" s="2"/>
+      <c r="AD50" s="2"/>
+      <c r="AE50" s="2"/>
+      <c r="AF50" s="2"/>
+      <c r="AG50" s="2"/>
+      <c r="AH50" s="2"/>
+      <c r="AI50" s="2"/>
+      <c r="AJ50" s="2"/>
+      <c r="AK50" s="2"/>
+      <c r="AL50" s="2"/>
+      <c r="AM50" s="2"/>
+      <c r="AN50" s="2"/>
+      <c r="AO50" s="2"/>
+      <c r="AP50" s="2"/>
+      <c r="AQ50" s="2"/>
+      <c r="AR50" s="2"/>
+      <c r="AS50" s="2"/>
+    </row>
+    <row r="51" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="2"/>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2"/>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+      <c r="AM51" s="2"/>
+      <c r="AN51" s="2"/>
+      <c r="AO51" s="2"/>
+      <c r="AP51" s="2"/>
+      <c r="AQ51" s="2"/>
+      <c r="AR51" s="2"/>
+      <c r="AS51" s="2"/>
+    </row>
+    <row r="52" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
+      <c r="Y52" s="2"/>
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+      <c r="AC52" s="2"/>
+      <c r="AD52" s="2"/>
+      <c r="AE52" s="2"/>
+      <c r="AF52" s="2"/>
+      <c r="AG52" s="2"/>
+      <c r="AH52" s="2"/>
+      <c r="AI52" s="2"/>
+      <c r="AJ52" s="2"/>
+      <c r="AK52" s="2"/>
+      <c r="AL52" s="2"/>
+      <c r="AM52" s="2"/>
+      <c r="AN52" s="2"/>
+      <c r="AO52" s="2"/>
+      <c r="AP52" s="2"/>
+      <c r="AQ52" s="2"/>
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="2"/>
+    </row>
+    <row r="53" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+      <c r="M53" s="2"/>
+      <c r="N53" s="2"/>
+      <c r="O53" s="2"/>
+      <c r="P53" s="2"/>
+      <c r="Q53" s="2"/>
+      <c r="R53" s="2"/>
+      <c r="S53" s="2"/>
+      <c r="T53" s="2"/>
+      <c r="U53" s="2"/>
+      <c r="V53" s="2"/>
+      <c r="W53" s="2"/>
+      <c r="X53" s="2"/>
+      <c r="Y53" s="2"/>
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+      <c r="AC53" s="2"/>
+      <c r="AD53" s="2"/>
+      <c r="AE53" s="2"/>
+      <c r="AF53" s="2"/>
+      <c r="AG53" s="2"/>
+      <c r="AH53" s="2"/>
+      <c r="AI53" s="2"/>
+      <c r="AJ53" s="2"/>
+      <c r="AK53" s="2"/>
+      <c r="AL53" s="2"/>
+      <c r="AM53" s="2"/>
+      <c r="AN53" s="2"/>
+      <c r="AO53" s="2"/>
+      <c r="AP53" s="2"/>
+      <c r="AQ53" s="2"/>
+      <c r="AR53" s="2"/>
+      <c r="AS53" s="2"/>
+    </row>
+    <row r="54" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
+      <c r="O54" s="2"/>
+      <c r="P54" s="2"/>
+      <c r="Q54" s="2"/>
+      <c r="R54" s="2"/>
+      <c r="S54" s="2"/>
+      <c r="T54" s="2"/>
+      <c r="U54" s="2"/>
+      <c r="V54" s="2"/>
+      <c r="W54" s="2"/>
+      <c r="X54" s="2"/>
+      <c r="Y54" s="2"/>
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+      <c r="AC54" s="2"/>
+      <c r="AD54" s="2"/>
+      <c r="AE54" s="2"/>
+      <c r="AF54" s="2"/>
+      <c r="AG54" s="2"/>
+      <c r="AH54" s="2"/>
+      <c r="AI54" s="2"/>
+      <c r="AJ54" s="2"/>
+      <c r="AK54" s="2"/>
+      <c r="AL54" s="2"/>
+      <c r="AM54" s="2"/>
+      <c r="AN54" s="2"/>
+      <c r="AO54" s="2"/>
+      <c r="AP54" s="2"/>
+      <c r="AQ54" s="2"/>
+      <c r="AR54" s="2"/>
+      <c r="AS54" s="2"/>
+    </row>
+    <row r="55" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
+      <c r="Y55" s="2"/>
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+      <c r="AC55" s="2"/>
+      <c r="AD55" s="2"/>
+      <c r="AE55" s="2"/>
+      <c r="AF55" s="2"/>
+      <c r="AG55" s="2"/>
+      <c r="AH55" s="2"/>
+      <c r="AI55" s="2"/>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="2"/>
+      <c r="AL55" s="2"/>
+      <c r="AM55" s="2"/>
+      <c r="AN55" s="2"/>
+      <c r="AO55" s="2"/>
+      <c r="AP55" s="2"/>
+      <c r="AQ55" s="2"/>
+      <c r="AR55" s="2"/>
+      <c r="AS55" s="2"/>
+    </row>
+    <row r="56" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
+      <c r="O56" s="2"/>
+      <c r="P56" s="2"/>
+      <c r="Q56" s="2"/>
+      <c r="R56" s="2"/>
+      <c r="S56" s="2"/>
+      <c r="T56" s="2"/>
+      <c r="U56" s="2"/>
+      <c r="V56" s="2"/>
+      <c r="W56" s="2"/>
+      <c r="X56" s="2"/>
+      <c r="Y56" s="2"/>
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+      <c r="AC56" s="2"/>
+      <c r="AD56" s="2"/>
+      <c r="AE56" s="2"/>
+      <c r="AF56" s="2"/>
+      <c r="AG56" s="2"/>
+      <c r="AH56" s="2"/>
+      <c r="AI56" s="2"/>
+      <c r="AJ56" s="2"/>
+      <c r="AK56" s="2"/>
+      <c r="AL56" s="2"/>
+      <c r="AM56" s="2"/>
+      <c r="AN56" s="2"/>
+      <c r="AO56" s="2"/>
+      <c r="AP56" s="2"/>
+      <c r="AQ56" s="2"/>
+      <c r="AR56" s="2"/>
+      <c r="AS56" s="2"/>
+    </row>
+    <row r="57" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="2"/>
+      <c r="L57" s="2"/>
+      <c r="M57" s="2"/>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2"/>
+      <c r="V57" s="2"/>
+      <c r="W57" s="2"/>
+      <c r="X57" s="2"/>
+      <c r="Y57" s="2"/>
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+      <c r="AC57" s="2"/>
+      <c r="AD57" s="2"/>
+      <c r="AE57" s="2"/>
+      <c r="AF57" s="2"/>
+      <c r="AG57" s="2"/>
+      <c r="AH57" s="2"/>
+      <c r="AI57" s="2"/>
+      <c r="AJ57" s="2"/>
+      <c r="AK57" s="2"/>
+      <c r="AL57" s="2"/>
+      <c r="AM57" s="2"/>
+      <c r="AN57" s="2"/>
+      <c r="AO57" s="2"/>
+      <c r="AP57" s="2"/>
+      <c r="AQ57" s="2"/>
+      <c r="AR57" s="2"/>
+      <c r="AS57" s="2"/>
+    </row>
+    <row r="58" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58" s="2"/>
+      <c r="J58" s="2"/>
+      <c r="K58" s="2"/>
+      <c r="L58" s="2"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+      <c r="R58" s="2"/>
+      <c r="S58" s="2"/>
+      <c r="T58" s="2"/>
+      <c r="U58" s="2"/>
+      <c r="V58" s="2"/>
+      <c r="W58" s="2"/>
+      <c r="X58" s="2"/>
+      <c r="Y58" s="2"/>
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+      <c r="AC58" s="2"/>
+      <c r="AD58" s="2"/>
+      <c r="AE58" s="2"/>
+      <c r="AF58" s="2"/>
+      <c r="AG58" s="2"/>
+      <c r="AH58" s="2"/>
+      <c r="AI58" s="2"/>
+      <c r="AJ58" s="2"/>
+      <c r="AK58" s="2"/>
+      <c r="AL58" s="2"/>
+      <c r="AM58" s="2"/>
+      <c r="AN58" s="2"/>
+      <c r="AO58" s="2"/>
+      <c r="AP58" s="2"/>
+      <c r="AQ58" s="2"/>
+      <c r="AR58" s="2"/>
+      <c r="AS58" s="2"/>
+    </row>
+    <row r="59" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59" s="2"/>
+      <c r="J59" s="2"/>
+      <c r="K59" s="2"/>
+      <c r="L59" s="2"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+      <c r="R59" s="2"/>
+      <c r="S59" s="2"/>
+      <c r="T59" s="2"/>
+      <c r="U59" s="2"/>
+      <c r="V59" s="2"/>
+      <c r="W59" s="2"/>
+      <c r="X59" s="2"/>
+      <c r="Y59" s="2"/>
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+      <c r="AC59" s="2"/>
+      <c r="AD59" s="2"/>
+      <c r="AE59" s="2"/>
+      <c r="AF59" s="2"/>
+      <c r="AG59" s="2"/>
+      <c r="AH59" s="2"/>
+      <c r="AI59" s="2"/>
+      <c r="AJ59" s="2"/>
+      <c r="AK59" s="2"/>
+      <c r="AL59" s="2"/>
+      <c r="AM59" s="2"/>
+      <c r="AN59" s="2"/>
+      <c r="AO59" s="2"/>
+      <c r="AP59" s="2"/>
+      <c r="AQ59" s="2"/>
+      <c r="AR59" s="2"/>
+      <c r="AS59" s="2"/>
+    </row>
+    <row r="60" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+      <c r="M60" s="2"/>
+      <c r="N60" s="2"/>
+      <c r="O60" s="2"/>
+      <c r="P60" s="2"/>
+      <c r="Q60" s="2"/>
+      <c r="R60" s="2"/>
+      <c r="S60" s="2"/>
+      <c r="T60" s="2"/>
+      <c r="U60" s="2"/>
+      <c r="V60" s="2"/>
+      <c r="W60" s="2"/>
+      <c r="X60" s="2"/>
+      <c r="Y60" s="2"/>
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+      <c r="AC60" s="2"/>
+      <c r="AD60" s="2"/>
+      <c r="AE60" s="2"/>
+      <c r="AF60" s="2"/>
+      <c r="AG60" s="2"/>
+      <c r="AH60" s="2"/>
+      <c r="AI60" s="2"/>
+      <c r="AJ60" s="2"/>
+      <c r="AK60" s="2"/>
+      <c r="AL60" s="2"/>
+      <c r="AM60" s="2"/>
+      <c r="AN60" s="2"/>
+      <c r="AO60" s="2"/>
+      <c r="AP60" s="2"/>
+      <c r="AQ60" s="2"/>
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="2"/>
+    </row>
+    <row r="61" spans="4:45" x14ac:dyDescent="0.15">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+      <c r="R61" s="2"/>
+      <c r="S61" s="2"/>
+      <c r="T61" s="2"/>
+      <c r="U61" s="2"/>
+      <c r="V61" s="2"/>
+      <c r="W61" s="2"/>
+      <c r="X61" s="2"/>
+      <c r="Y61" s="2"/>
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+      <c r="AC61" s="2"/>
+      <c r="AD61" s="2"/>
+      <c r="AE61" s="2"/>
+      <c r="AF61" s="2"/>
+      <c r="AG61" s="2"/>
+      <c r="AH61" s="2"/>
+      <c r="AI61" s="2"/>
+      <c r="AJ61" s="2"/>
+      <c r="AK61" s="2"/>
+      <c r="AL61" s="2"/>
+      <c r="AM61" s="2"/>
+      <c r="AN61" s="2"/>
+      <c r="AO61" s="2"/>
+      <c r="AP61" s="2"/>
+      <c r="AQ61" s="2"/>
+      <c r="AR61" s="2"/>
+      <c r="AS61" s="2"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8103,13 +11844,13 @@
   <dimension ref="F2:AU61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB42" sqref="BB42"/>
+      <selection activeCell="D2" sqref="D2:BY61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16383" width="1.69921875" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16383" width="1.75" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="6:47" x14ac:dyDescent="0.15">
@@ -10588,14 +14329,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="AW124" sqref="AW124"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="BW53" sqref="BW53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="9.6" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16383" width="1.69921875" style="1" customWidth="1"/>
-    <col min="16384" max="16384" width="8.796875" style="1"/>
+    <col min="1" max="16383" width="1.75" style="1" customWidth="1"/>
+    <col min="16384" max="16384" width="8.75" style="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.15">

--- a/notTidyHpInfo/images/TextbookOfHttp/FiguresTextbookOfHttp.xlsx
+++ b/notTidyHpInfo/images/TextbookOfHttp/FiguresTextbookOfHttp.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="【原紙】" sheetId="1" r:id="rId1"/>
-    <sheet name="11.2.3" sheetId="2" r:id="rId2"/>
-    <sheet name="11.5" sheetId="3" r:id="rId3"/>
+    <sheet name="仮想開発環境図" sheetId="4" r:id="rId2"/>
+    <sheet name="11.2.3" sheetId="2" r:id="rId3"/>
+    <sheet name="11.5" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">仮想開発環境図!$A$1:$AP$59</definedName>
+  </definedNames>
+  <calcPr calcId="162913" concurrentManualCount="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,9 +24,105 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>サーバ名</t>
+    <rPh sb="3" eb="4">
+      <t>メイ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アドレス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>アクセス</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>JenkinsMaster</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.102</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.104</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>git</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.107</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.108</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.102:8080</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>apache</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.103</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Zabbix</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.104/zabbix/dashboard.php</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.105</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.105/git/</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>Oracle</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.106</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.106:8080/apex/f?p=4950:1:5229812346957731::NO</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>tomcat</t>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>192.168.56.108:8080</t>
+    <phoneticPr fontId="8"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -44,8 +144,55 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -58,8 +205,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -67,17 +268,130 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="標準 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1371,6 +1685,2337 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="角丸四角形 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1600200" y="152400"/>
+          <a:ext cx="600075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>メモリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="フローチャート : 磁気ディスク 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2400300" y="152400"/>
+          <a:ext cx="1000125" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+              <a:solidFill>
+                <a:srgbClr val="7030A0"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>テーブル</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>58831</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="直方体 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3323665" y="1698812"/>
+          <a:ext cx="1135716" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Zabbix</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.104)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>168089</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>33130</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1168214" y="1557130"/>
+          <a:ext cx="5355851" cy="3386906"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>29623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>31936</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117028</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="直方体 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4696946" y="2315623"/>
+          <a:ext cx="1135715" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JenkinsMaster</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.102)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>80683</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>13447</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>16248</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100852</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="直方体 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4481233" y="3518647"/>
+          <a:ext cx="1135715" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>git</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.105)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="tx2">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>98612</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>64994</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>34177</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="直方体 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3098987" y="3570194"/>
+          <a:ext cx="1135715" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>PostgreSQL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.107)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>15688</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152960</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47063</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="直方体 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2015938" y="2859741"/>
+          <a:ext cx="1137397" cy="540122"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>tomcat</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.108)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>24214</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65615</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="6" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3824689" y="2243417"/>
+          <a:ext cx="872257" cy="412998"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21291</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180415</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>152960</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="7" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3821766" y="2243417"/>
+          <a:ext cx="1159249" cy="1414743"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198344</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21291</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="直線矢印コネクタ 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3598769" y="2243417"/>
+          <a:ext cx="222997" cy="1461808"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>115420</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>21291</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>99171</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直線矢印コネクタ 12"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="3"/>
+          <a:endCxn id="9" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2515720" y="2243417"/>
+          <a:ext cx="1306046" cy="751354"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152960</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>65615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>96371</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15943</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="6" idx="2"/>
+          <a:endCxn id="9" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3153335" y="2656415"/>
+          <a:ext cx="1543611" cy="407528"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180414</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>117028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>196103</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>147114</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="1"/>
+          <a:endCxn id="6" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4981014" y="2860228"/>
+          <a:ext cx="215714" cy="792086"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>15943</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>198344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>49574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直線矢印コネクタ 15"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="1"/>
+          <a:endCxn id="9" idx="5"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3153335" y="3063943"/>
+          <a:ext cx="445434" cy="643231"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="25400">
+          <a:solidFill>
+            <a:schemeClr val="bg2">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>111182</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>107771</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>49671</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="直方体 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="511232" y="1784171"/>
+          <a:ext cx="1138639" cy="540123"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>apache</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.103)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>165652</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>132521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="四角形吹き出し 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="1219200"/>
+          <a:ext cx="1365802" cy="437321"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89393"/>
+            <a:gd name="adj2" fmla="val 94928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>監視・管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>36444</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127553</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>3312</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>110988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="四角形吹き出し 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6037194" y="1803953"/>
+          <a:ext cx="1367043" cy="440635"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89393"/>
+            <a:gd name="adj2" fmla="val 94928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>コンパイル・デプロイ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>59634</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>37223</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>193982</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>124628</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="直方体 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3460059" y="4456823"/>
+          <a:ext cx="1134473" cy="544605"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Oracle</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg2">
+                  <a:lumMod val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.106)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79512</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>148211</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>15077</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86529</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="直方体 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="479562" y="2586611"/>
+          <a:ext cx="1135715" cy="547918"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CodeSoner</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.???)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>43070</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>3312</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>43070</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>66260</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="角丸四角形 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1843295" y="3356112"/>
+          <a:ext cx="600075" cy="520148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>jenkins</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>54665</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>72886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>54666</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>135834</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="角丸四角形 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2855015" y="4035286"/>
+          <a:ext cx="600076" cy="520148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>jenkins</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>43068</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>24848</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>106016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="角丸四角形 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4225373" y="4005468"/>
+          <a:ext cx="600075" cy="520148"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>jenkins</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>86139</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>120924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>86140</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>34786</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="角丸四角形 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2886489" y="1492524"/>
+          <a:ext cx="600076" cy="523462"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 28205"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>jenkins</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" i="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+              <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            </a:rPr>
+            <a:t>slave</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" i="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+            <a:ea typeface="ＭＳ ゴシック" pitchFamily="49" charset="-128"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>99391</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>143242</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>34956</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>81560</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="直方体 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="499441" y="3343642"/>
+          <a:ext cx="1135715" cy="547918"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>RedMine</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.???)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>48039</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>97736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>14908</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>81170</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="四角形吹き出し 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5848764" y="2993336"/>
+          <a:ext cx="1367044" cy="440634"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89393"/>
+            <a:gd name="adj2" fmla="val 94928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ソースコードなどの諸々管理</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>74542</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>93546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>10107</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>31864</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="直方体 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="474592" y="4055946"/>
+          <a:ext cx="1135715" cy="547918"/>
+        </a:xfrm>
+        <a:prstGeom prst="cube">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx2">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>JenkinsSlave</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>(192.168.56.???)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>196249</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>151425</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="正方形/長方形 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1196374" y="5115339"/>
+          <a:ext cx="5355851" cy="894522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="44450">
+          <a:solidFill>
+            <a:schemeClr val="accent2">
+              <a:lumMod val="60000"/>
+              <a:lumOff val="40000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>175591</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>84483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142460</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>67917</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="四角形吹き出し 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4976191" y="4199283"/>
+          <a:ext cx="1367044" cy="440634"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -89393"/>
+            <a:gd name="adj2" fmla="val 94928"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln w="12700">
+          <a:prstDash val="sysDash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" lIns="36000" tIns="36000" rIns="0" bIns="0" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>11gEx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1000">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>の環境をインストール</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ja-JP" sz="1000">
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
@@ -2642,7 +5287,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -11841,6 +14486,2177 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A6:AP56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AU25" sqref="AU25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="12" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="2.625" style="6" customWidth="1"/>
+    <col min="2" max="16384" width="2.625" style="6"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="1:42" s="3" customFormat="1" x14ac:dyDescent="0.4"/>
+    <row r="8" spans="1:42" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+      <c r="T9" s="19"/>
+      <c r="U9" s="19"/>
+      <c r="V9" s="19"/>
+      <c r="W9" s="19"/>
+      <c r="X9" s="19"/>
+      <c r="Y9" s="19"/>
+      <c r="Z9" s="19"/>
+      <c r="AA9" s="19"/>
+      <c r="AB9" s="19"/>
+      <c r="AC9" s="19"/>
+      <c r="AD9" s="19"/>
+      <c r="AE9" s="19"/>
+      <c r="AF9" s="19"/>
+      <c r="AG9" s="19"/>
+      <c r="AH9" s="19"/>
+      <c r="AI9" s="19"/>
+      <c r="AJ9" s="19"/>
+      <c r="AK9" s="19"/>
+      <c r="AL9" s="19"/>
+      <c r="AM9" s="19"/>
+      <c r="AN9" s="19"/>
+      <c r="AO9" s="19"/>
+      <c r="AP9" s="19"/>
+    </row>
+    <row r="10" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="19"/>
+      <c r="O10" s="19"/>
+      <c r="P10" s="19"/>
+      <c r="Q10" s="19"/>
+      <c r="R10" s="19"/>
+      <c r="S10" s="19"/>
+      <c r="T10" s="19"/>
+      <c r="U10" s="19"/>
+      <c r="V10" s="19"/>
+      <c r="W10" s="19"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="19"/>
+      <c r="Z10" s="19"/>
+      <c r="AA10" s="19"/>
+      <c r="AB10" s="19"/>
+      <c r="AC10" s="19"/>
+      <c r="AD10" s="19"/>
+      <c r="AE10" s="19"/>
+      <c r="AF10" s="19"/>
+      <c r="AG10" s="19"/>
+      <c r="AH10" s="19"/>
+      <c r="AI10" s="19"/>
+      <c r="AJ10" s="19"/>
+      <c r="AK10" s="19"/>
+      <c r="AL10" s="19"/>
+      <c r="AM10" s="19"/>
+      <c r="AN10" s="19"/>
+      <c r="AO10" s="19"/>
+      <c r="AP10" s="19"/>
+    </row>
+    <row r="11" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="19"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="19"/>
+      <c r="Q11" s="19"/>
+      <c r="R11" s="19"/>
+      <c r="S11" s="19"/>
+      <c r="T11" s="19"/>
+      <c r="U11" s="19"/>
+      <c r="V11" s="19"/>
+      <c r="W11" s="19"/>
+      <c r="X11" s="19"/>
+      <c r="Y11" s="19"/>
+      <c r="Z11" s="19"/>
+      <c r="AA11" s="19"/>
+      <c r="AB11" s="19"/>
+      <c r="AC11" s="19"/>
+      <c r="AD11" s="19"/>
+      <c r="AE11" s="19"/>
+      <c r="AF11" s="19"/>
+      <c r="AG11" s="19"/>
+      <c r="AH11" s="19"/>
+      <c r="AI11" s="19"/>
+      <c r="AJ11" s="19"/>
+      <c r="AK11" s="19"/>
+      <c r="AL11" s="19"/>
+      <c r="AM11" s="19"/>
+      <c r="AN11" s="19"/>
+      <c r="AO11" s="19"/>
+      <c r="AP11" s="19"/>
+    </row>
+    <row r="12" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="19"/>
+      <c r="O12" s="19"/>
+      <c r="P12" s="19"/>
+      <c r="Q12" s="19"/>
+      <c r="R12" s="19"/>
+      <c r="S12" s="19"/>
+      <c r="T12" s="19"/>
+      <c r="U12" s="19"/>
+      <c r="V12" s="19"/>
+      <c r="W12" s="19"/>
+      <c r="X12" s="19"/>
+      <c r="Y12" s="19"/>
+      <c r="Z12" s="19"/>
+      <c r="AA12" s="19"/>
+      <c r="AB12" s="19"/>
+      <c r="AC12" s="19"/>
+      <c r="AD12" s="19"/>
+      <c r="AE12" s="19"/>
+      <c r="AF12" s="19"/>
+      <c r="AG12" s="19"/>
+      <c r="AH12" s="19"/>
+      <c r="AI12" s="19"/>
+      <c r="AJ12" s="19"/>
+      <c r="AK12" s="19"/>
+      <c r="AL12" s="19"/>
+      <c r="AM12" s="19"/>
+      <c r="AN12" s="19"/>
+      <c r="AO12" s="19"/>
+      <c r="AP12" s="19"/>
+    </row>
+    <row r="13" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="19"/>
+      <c r="O13" s="19"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="19"/>
+      <c r="R13" s="19"/>
+      <c r="S13" s="19"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="19"/>
+      <c r="V13" s="19"/>
+      <c r="W13" s="19"/>
+      <c r="X13" s="19"/>
+      <c r="Y13" s="19"/>
+      <c r="Z13" s="19"/>
+      <c r="AA13" s="19"/>
+      <c r="AB13" s="19"/>
+      <c r="AC13" s="19"/>
+      <c r="AD13" s="19"/>
+      <c r="AE13" s="19"/>
+      <c r="AF13" s="19"/>
+      <c r="AG13" s="19"/>
+      <c r="AH13" s="19"/>
+      <c r="AI13" s="19"/>
+      <c r="AJ13" s="19"/>
+      <c r="AK13" s="19"/>
+      <c r="AL13" s="19"/>
+      <c r="AM13" s="19"/>
+      <c r="AN13" s="19"/>
+      <c r="AO13" s="19"/>
+      <c r="AP13" s="19"/>
+    </row>
+    <row r="14" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="19"/>
+      <c r="O14" s="19"/>
+      <c r="P14" s="19"/>
+      <c r="Q14" s="19"/>
+      <c r="R14" s="19"/>
+      <c r="S14" s="19"/>
+      <c r="T14" s="19"/>
+      <c r="U14" s="19"/>
+      <c r="V14" s="19"/>
+      <c r="W14" s="19"/>
+      <c r="X14" s="19"/>
+      <c r="Y14" s="19"/>
+      <c r="Z14" s="19"/>
+      <c r="AA14" s="19"/>
+      <c r="AB14" s="19"/>
+      <c r="AC14" s="19"/>
+      <c r="AD14" s="19"/>
+      <c r="AE14" s="19"/>
+      <c r="AF14" s="19"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="19"/>
+      <c r="AI14" s="19"/>
+      <c r="AJ14" s="19"/>
+      <c r="AK14" s="19"/>
+      <c r="AL14" s="19"/>
+      <c r="AM14" s="19"/>
+      <c r="AN14" s="19"/>
+      <c r="AO14" s="19"/>
+      <c r="AP14" s="19"/>
+    </row>
+    <row r="15" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="19"/>
+      <c r="O15" s="19"/>
+      <c r="P15" s="19"/>
+      <c r="Q15" s="19"/>
+      <c r="R15" s="19"/>
+      <c r="S15" s="19"/>
+      <c r="T15" s="19"/>
+      <c r="U15" s="19"/>
+      <c r="V15" s="19"/>
+      <c r="W15" s="19"/>
+      <c r="X15" s="19"/>
+      <c r="Y15" s="19"/>
+      <c r="Z15" s="19"/>
+      <c r="AA15" s="19"/>
+      <c r="AB15" s="19"/>
+      <c r="AC15" s="19"/>
+      <c r="AD15" s="19"/>
+      <c r="AE15" s="19"/>
+      <c r="AF15" s="19"/>
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="19"/>
+      <c r="AI15" s="19"/>
+      <c r="AJ15" s="19"/>
+      <c r="AK15" s="19"/>
+      <c r="AL15" s="19"/>
+      <c r="AM15" s="19"/>
+      <c r="AN15" s="19"/>
+      <c r="AO15" s="19"/>
+      <c r="AP15" s="19"/>
+    </row>
+    <row r="16" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="S16" s="19"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AB16" s="19"/>
+      <c r="AC16" s="19"/>
+      <c r="AD16" s="19"/>
+      <c r="AE16" s="19"/>
+      <c r="AF16" s="19"/>
+      <c r="AG16" s="19"/>
+      <c r="AH16" s="19"/>
+      <c r="AI16" s="19"/>
+      <c r="AJ16" s="19"/>
+      <c r="AK16" s="19"/>
+      <c r="AL16" s="19"/>
+      <c r="AM16" s="19"/>
+      <c r="AN16" s="19"/>
+      <c r="AO16" s="19"/>
+      <c r="AP16" s="19"/>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="O17" s="19"/>
+      <c r="P17" s="19"/>
+      <c r="Q17" s="19"/>
+      <c r="R17" s="19"/>
+      <c r="S17" s="19"/>
+      <c r="T17" s="19"/>
+      <c r="U17" s="19"/>
+      <c r="V17" s="19"/>
+      <c r="W17" s="19"/>
+      <c r="X17" s="19"/>
+      <c r="Y17" s="19"/>
+      <c r="Z17" s="19"/>
+      <c r="AA17" s="19"/>
+      <c r="AB17" s="19"/>
+      <c r="AC17" s="19"/>
+      <c r="AD17" s="19"/>
+      <c r="AE17" s="19"/>
+      <c r="AF17" s="19"/>
+      <c r="AG17" s="19"/>
+      <c r="AH17" s="19"/>
+      <c r="AI17" s="19"/>
+      <c r="AJ17" s="19"/>
+      <c r="AK17" s="19"/>
+      <c r="AL17" s="19"/>
+      <c r="AM17" s="19"/>
+      <c r="AN17" s="19"/>
+      <c r="AO17" s="19"/>
+      <c r="AP17" s="19"/>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+      <c r="AB18" s="19"/>
+      <c r="AC18" s="19"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
+      <c r="AK18" s="19"/>
+      <c r="AL18" s="19"/>
+      <c r="AM18" s="19"/>
+      <c r="AN18" s="19"/>
+      <c r="AO18" s="19"/>
+      <c r="AP18" s="19"/>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A19" s="19"/>
+      <c r="B19" s="19"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="O19" s="19"/>
+      <c r="P19" s="19"/>
+      <c r="Q19" s="19"/>
+      <c r="R19" s="19"/>
+      <c r="S19" s="19"/>
+      <c r="T19" s="19"/>
+      <c r="U19" s="19"/>
+      <c r="V19" s="19"/>
+      <c r="W19" s="19"/>
+      <c r="X19" s="19"/>
+      <c r="Y19" s="19"/>
+      <c r="Z19" s="19"/>
+      <c r="AA19" s="19"/>
+      <c r="AB19" s="19"/>
+      <c r="AC19" s="19"/>
+      <c r="AD19" s="19"/>
+      <c r="AE19" s="19"/>
+      <c r="AF19" s="19"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="19"/>
+      <c r="AI19" s="19"/>
+      <c r="AJ19" s="19"/>
+      <c r="AK19" s="19"/>
+      <c r="AL19" s="19"/>
+      <c r="AM19" s="19"/>
+      <c r="AN19" s="19"/>
+      <c r="AO19" s="19"/>
+      <c r="AP19" s="19"/>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A20" s="19"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19"/>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
+      <c r="G20" s="19"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="19"/>
+      <c r="M20" s="19"/>
+      <c r="N20" s="19"/>
+      <c r="O20" s="19"/>
+      <c r="P20" s="19"/>
+      <c r="Q20" s="19"/>
+      <c r="R20" s="19"/>
+      <c r="S20" s="19"/>
+      <c r="T20" s="19"/>
+      <c r="U20" s="19"/>
+      <c r="V20" s="19"/>
+      <c r="W20" s="19"/>
+      <c r="X20" s="19"/>
+      <c r="Y20" s="19"/>
+      <c r="Z20" s="19"/>
+      <c r="AA20" s="19"/>
+      <c r="AB20" s="19"/>
+      <c r="AC20" s="19"/>
+      <c r="AD20" s="19"/>
+      <c r="AE20" s="19"/>
+      <c r="AF20" s="19"/>
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="19"/>
+      <c r="AI20" s="19"/>
+      <c r="AJ20" s="19"/>
+      <c r="AK20" s="19"/>
+      <c r="AL20" s="19"/>
+      <c r="AM20" s="19"/>
+      <c r="AN20" s="19"/>
+      <c r="AO20" s="19"/>
+      <c r="AP20" s="19"/>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A21" s="19"/>
+      <c r="B21" s="19"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19"/>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="19"/>
+      <c r="N21" s="19"/>
+      <c r="O21" s="19"/>
+      <c r="P21" s="19"/>
+      <c r="Q21" s="19"/>
+      <c r="R21" s="19"/>
+      <c r="S21" s="19"/>
+      <c r="T21" s="19"/>
+      <c r="U21" s="19"/>
+      <c r="V21" s="19"/>
+      <c r="W21" s="19"/>
+      <c r="X21" s="19"/>
+      <c r="Y21" s="19"/>
+      <c r="Z21" s="19"/>
+      <c r="AA21" s="19"/>
+      <c r="AB21" s="19"/>
+      <c r="AC21" s="19"/>
+      <c r="AD21" s="19"/>
+      <c r="AE21" s="19"/>
+      <c r="AF21" s="19"/>
+      <c r="AG21" s="19"/>
+      <c r="AH21" s="19"/>
+      <c r="AI21" s="19"/>
+      <c r="AJ21" s="19"/>
+      <c r="AK21" s="19"/>
+      <c r="AL21" s="19"/>
+      <c r="AM21" s="19"/>
+      <c r="AN21" s="19"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="19"/>
+      <c r="M22" s="19"/>
+      <c r="N22" s="19"/>
+      <c r="O22" s="19"/>
+      <c r="P22" s="19"/>
+      <c r="Q22" s="19"/>
+      <c r="R22" s="19"/>
+      <c r="S22" s="19"/>
+      <c r="T22" s="19"/>
+      <c r="U22" s="19"/>
+      <c r="V22" s="19"/>
+      <c r="W22" s="19"/>
+      <c r="X22" s="19"/>
+      <c r="Y22" s="19"/>
+      <c r="Z22" s="19"/>
+      <c r="AA22" s="19"/>
+      <c r="AB22" s="19"/>
+      <c r="AC22" s="19"/>
+      <c r="AD22" s="19"/>
+      <c r="AE22" s="19"/>
+      <c r="AF22" s="19"/>
+      <c r="AG22" s="19"/>
+      <c r="AH22" s="19"/>
+      <c r="AI22" s="19"/>
+      <c r="AJ22" s="19"/>
+      <c r="AK22" s="19"/>
+      <c r="AL22" s="19"/>
+      <c r="AM22" s="19"/>
+      <c r="AN22" s="19"/>
+      <c r="AO22" s="19"/>
+      <c r="AP22" s="19"/>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A23" s="19"/>
+      <c r="B23" s="19"/>
+      <c r="C23" s="19"/>
+      <c r="D23" s="19"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="19"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="19"/>
+      <c r="N23" s="19"/>
+      <c r="O23" s="19"/>
+      <c r="P23" s="19"/>
+      <c r="Q23" s="19"/>
+      <c r="R23" s="19"/>
+      <c r="S23" s="19"/>
+      <c r="T23" s="19"/>
+      <c r="U23" s="19"/>
+      <c r="V23" s="19"/>
+      <c r="W23" s="19"/>
+      <c r="X23" s="19"/>
+      <c r="Y23" s="19"/>
+      <c r="Z23" s="19"/>
+      <c r="AA23" s="19"/>
+      <c r="AB23" s="19"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
+      <c r="AK23" s="19"/>
+      <c r="AL23" s="19"/>
+      <c r="AM23" s="19"/>
+      <c r="AN23" s="19"/>
+      <c r="AO23" s="19"/>
+      <c r="AP23" s="19"/>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="19"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="19"/>
+      <c r="M24" s="19"/>
+      <c r="N24" s="19"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="19"/>
+      <c r="Q24" s="19"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="19"/>
+      <c r="T24" s="19"/>
+      <c r="U24" s="19"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+      <c r="X24" s="19"/>
+      <c r="Y24" s="19"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="19"/>
+      <c r="AB24" s="19"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="19"/>
+      <c r="AE24" s="19"/>
+      <c r="AF24" s="19"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="19"/>
+      <c r="AI24" s="19"/>
+      <c r="AJ24" s="19"/>
+      <c r="AK24" s="19"/>
+      <c r="AL24" s="19"/>
+      <c r="AM24" s="19"/>
+      <c r="AN24" s="19"/>
+      <c r="AO24" s="19"/>
+      <c r="AP24" s="19"/>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A25" s="19"/>
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="19"/>
+      <c r="N25" s="19"/>
+      <c r="O25" s="19"/>
+      <c r="P25" s="19"/>
+      <c r="Q25" s="19"/>
+      <c r="R25" s="19"/>
+      <c r="S25" s="19"/>
+      <c r="T25" s="19"/>
+      <c r="U25" s="19"/>
+      <c r="V25" s="19"/>
+      <c r="W25" s="19"/>
+      <c r="X25" s="19"/>
+      <c r="Y25" s="19"/>
+      <c r="Z25" s="19"/>
+      <c r="AA25" s="19"/>
+      <c r="AB25" s="19"/>
+      <c r="AC25" s="19"/>
+      <c r="AD25" s="19"/>
+      <c r="AE25" s="19"/>
+      <c r="AF25" s="19"/>
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="19"/>
+      <c r="AI25" s="19"/>
+      <c r="AJ25" s="19"/>
+      <c r="AK25" s="19"/>
+      <c r="AL25" s="19"/>
+      <c r="AM25" s="19"/>
+      <c r="AN25" s="19"/>
+      <c r="AO25" s="19"/>
+      <c r="AP25" s="19"/>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="19"/>
+      <c r="E26" s="19"/>
+      <c r="F26" s="19"/>
+      <c r="G26" s="19"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="20"/>
+      <c r="K26" s="20"/>
+      <c r="L26" s="19"/>
+      <c r="M26" s="19"/>
+      <c r="N26" s="19"/>
+      <c r="O26" s="19"/>
+      <c r="P26" s="19"/>
+      <c r="Q26" s="19"/>
+      <c r="R26" s="19"/>
+      <c r="S26" s="19"/>
+      <c r="T26" s="19"/>
+      <c r="U26" s="19"/>
+      <c r="V26" s="19"/>
+      <c r="W26" s="19"/>
+      <c r="X26" s="19"/>
+      <c r="Y26" s="19"/>
+      <c r="Z26" s="19"/>
+      <c r="AA26" s="19"/>
+      <c r="AB26" s="19"/>
+      <c r="AC26" s="19"/>
+      <c r="AD26" s="19"/>
+      <c r="AE26" s="19"/>
+      <c r="AF26" s="19"/>
+      <c r="AG26" s="19"/>
+      <c r="AH26" s="19"/>
+      <c r="AI26" s="19"/>
+      <c r="AJ26" s="19"/>
+      <c r="AK26" s="19"/>
+      <c r="AL26" s="19"/>
+      <c r="AM26" s="19"/>
+      <c r="AN26" s="19"/>
+      <c r="AO26" s="19"/>
+      <c r="AP26" s="19"/>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A27" s="19"/>
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="S27" s="19"/>
+      <c r="T27" s="19"/>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AB27" s="19"/>
+      <c r="AC27" s="19"/>
+      <c r="AD27" s="19"/>
+      <c r="AE27" s="19"/>
+      <c r="AF27" s="19"/>
+      <c r="AG27" s="19"/>
+      <c r="AH27" s="19"/>
+      <c r="AI27" s="19"/>
+      <c r="AJ27" s="19"/>
+      <c r="AK27" s="19"/>
+      <c r="AL27" s="19"/>
+      <c r="AM27" s="19"/>
+      <c r="AN27" s="19"/>
+      <c r="AO27" s="19"/>
+      <c r="AP27" s="19"/>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="19"/>
+      <c r="E28" s="19"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="19"/>
+      <c r="M28" s="19"/>
+      <c r="N28" s="19"/>
+      <c r="O28" s="19"/>
+      <c r="P28" s="19"/>
+      <c r="Q28" s="19"/>
+      <c r="R28" s="19"/>
+      <c r="S28" s="19"/>
+      <c r="T28" s="19"/>
+      <c r="U28" s="19"/>
+      <c r="V28" s="19"/>
+      <c r="W28" s="19"/>
+      <c r="X28" s="19"/>
+      <c r="Y28" s="19"/>
+      <c r="Z28" s="19"/>
+      <c r="AA28" s="19"/>
+      <c r="AB28" s="19"/>
+      <c r="AC28" s="19"/>
+      <c r="AD28" s="19"/>
+      <c r="AE28" s="19"/>
+      <c r="AF28" s="19"/>
+      <c r="AG28" s="19"/>
+      <c r="AH28" s="19"/>
+      <c r="AI28" s="19"/>
+      <c r="AJ28" s="19"/>
+      <c r="AK28" s="19"/>
+      <c r="AL28" s="19"/>
+      <c r="AM28" s="19"/>
+      <c r="AN28" s="19"/>
+      <c r="AO28" s="19"/>
+      <c r="AP28" s="19"/>
+    </row>
+    <row r="29" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="19"/>
+      <c r="C29" s="19"/>
+      <c r="D29" s="19"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="19"/>
+      <c r="G29" s="19"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
+      <c r="K29" s="20"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="19"/>
+      <c r="N29" s="19"/>
+      <c r="O29" s="19"/>
+      <c r="P29" s="19"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="S29" s="19"/>
+      <c r="T29" s="19"/>
+      <c r="U29" s="19"/>
+      <c r="V29" s="19"/>
+      <c r="W29" s="19"/>
+      <c r="X29" s="19"/>
+      <c r="Y29" s="19"/>
+      <c r="Z29" s="19"/>
+      <c r="AA29" s="19"/>
+      <c r="AB29" s="19"/>
+      <c r="AC29" s="19"/>
+      <c r="AD29" s="19"/>
+      <c r="AE29" s="19"/>
+      <c r="AF29" s="19"/>
+      <c r="AG29" s="19"/>
+      <c r="AH29" s="19"/>
+      <c r="AI29" s="19"/>
+      <c r="AJ29" s="19"/>
+      <c r="AK29" s="19"/>
+      <c r="AL29" s="19"/>
+      <c r="AM29" s="19"/>
+      <c r="AN29" s="19"/>
+      <c r="AO29" s="19"/>
+      <c r="AP29" s="19"/>
+    </row>
+    <row r="30" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A30" s="19"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
+      <c r="K30" s="20"/>
+      <c r="L30" s="19"/>
+      <c r="M30" s="19"/>
+      <c r="N30" s="19"/>
+      <c r="O30" s="19"/>
+      <c r="P30" s="19"/>
+      <c r="Q30" s="19"/>
+      <c r="R30" s="19"/>
+      <c r="S30" s="19"/>
+      <c r="T30" s="19"/>
+      <c r="U30" s="19"/>
+      <c r="V30" s="19"/>
+      <c r="W30" s="19"/>
+      <c r="X30" s="19"/>
+      <c r="Y30" s="19"/>
+      <c r="Z30" s="19"/>
+      <c r="AA30" s="19"/>
+      <c r="AB30" s="19"/>
+      <c r="AC30" s="19"/>
+      <c r="AD30" s="19"/>
+      <c r="AE30" s="19"/>
+      <c r="AF30" s="19"/>
+      <c r="AG30" s="19"/>
+      <c r="AH30" s="19"/>
+      <c r="AI30" s="19"/>
+      <c r="AJ30" s="19"/>
+      <c r="AK30" s="19"/>
+      <c r="AL30" s="19"/>
+      <c r="AM30" s="19"/>
+      <c r="AN30" s="19"/>
+      <c r="AO30" s="19"/>
+      <c r="AP30" s="19"/>
+    </row>
+    <row r="31" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A31" s="19"/>
+      <c r="B31" s="19"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19"/>
+      <c r="P31" s="19"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="S31" s="19"/>
+      <c r="T31" s="19"/>
+      <c r="U31" s="19"/>
+      <c r="V31" s="19"/>
+      <c r="W31" s="19"/>
+      <c r="X31" s="19"/>
+      <c r="Y31" s="19"/>
+      <c r="Z31" s="19"/>
+      <c r="AA31" s="19"/>
+      <c r="AB31" s="19"/>
+      <c r="AC31" s="19"/>
+      <c r="AD31" s="19"/>
+      <c r="AE31" s="19"/>
+      <c r="AF31" s="19"/>
+      <c r="AG31" s="19"/>
+      <c r="AH31" s="19"/>
+      <c r="AI31" s="19"/>
+      <c r="AJ31" s="19"/>
+      <c r="AK31" s="19"/>
+      <c r="AL31" s="19"/>
+      <c r="AM31" s="19"/>
+      <c r="AN31" s="19"/>
+      <c r="AO31" s="19"/>
+      <c r="AP31" s="19"/>
+    </row>
+    <row r="32" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="19"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="19"/>
+      <c r="O32" s="19"/>
+      <c r="P32" s="19"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+      <c r="S32" s="19"/>
+      <c r="T32" s="19"/>
+      <c r="U32" s="19"/>
+      <c r="V32" s="19"/>
+      <c r="W32" s="19"/>
+      <c r="X32" s="19"/>
+      <c r="Y32" s="19"/>
+      <c r="Z32" s="19"/>
+      <c r="AA32" s="19"/>
+      <c r="AB32" s="19"/>
+      <c r="AC32" s="19"/>
+      <c r="AD32" s="19"/>
+      <c r="AE32" s="19"/>
+      <c r="AF32" s="19"/>
+      <c r="AG32" s="19"/>
+      <c r="AH32" s="19"/>
+      <c r="AI32" s="19"/>
+      <c r="AJ32" s="19"/>
+      <c r="AK32" s="19"/>
+      <c r="AL32" s="19"/>
+      <c r="AM32" s="19"/>
+      <c r="AN32" s="19"/>
+      <c r="AO32" s="19"/>
+      <c r="AP32" s="19"/>
+    </row>
+    <row r="33" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="19"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="19"/>
+      <c r="O33" s="19"/>
+      <c r="P33" s="19"/>
+      <c r="Q33" s="19"/>
+      <c r="R33" s="19"/>
+      <c r="S33" s="19"/>
+      <c r="T33" s="19"/>
+      <c r="U33" s="19"/>
+      <c r="V33" s="19"/>
+      <c r="W33" s="19"/>
+      <c r="X33" s="19"/>
+      <c r="Y33" s="19"/>
+      <c r="Z33" s="19"/>
+      <c r="AA33" s="19"/>
+      <c r="AB33" s="19"/>
+      <c r="AC33" s="19"/>
+      <c r="AD33" s="19"/>
+      <c r="AE33" s="19"/>
+      <c r="AF33" s="19"/>
+      <c r="AG33" s="19"/>
+      <c r="AH33" s="19"/>
+      <c r="AI33" s="19"/>
+      <c r="AJ33" s="19"/>
+      <c r="AK33" s="19"/>
+      <c r="AL33" s="19"/>
+      <c r="AM33" s="19"/>
+      <c r="AN33" s="19"/>
+      <c r="AO33" s="19"/>
+      <c r="AP33" s="19"/>
+    </row>
+    <row r="34" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A34" s="19"/>
+      <c r="B34" s="19"/>
+      <c r="C34" s="19"/>
+      <c r="D34" s="19"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="19"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="19"/>
+      <c r="O34" s="19"/>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+      <c r="S34" s="19"/>
+      <c r="T34" s="19"/>
+      <c r="U34" s="19"/>
+      <c r="V34" s="19"/>
+      <c r="W34" s="19"/>
+      <c r="X34" s="19"/>
+      <c r="Y34" s="19"/>
+      <c r="Z34" s="19"/>
+      <c r="AA34" s="19"/>
+      <c r="AB34" s="19"/>
+      <c r="AC34" s="19"/>
+      <c r="AD34" s="19"/>
+      <c r="AE34" s="19"/>
+      <c r="AF34" s="19"/>
+      <c r="AG34" s="19"/>
+      <c r="AH34" s="19"/>
+      <c r="AI34" s="19"/>
+      <c r="AJ34" s="19"/>
+      <c r="AK34" s="19"/>
+      <c r="AL34" s="19"/>
+      <c r="AM34" s="19"/>
+      <c r="AN34" s="19"/>
+      <c r="AO34" s="19"/>
+      <c r="AP34" s="19"/>
+    </row>
+    <row r="35" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A35" s="19"/>
+      <c r="B35" s="19"/>
+      <c r="C35" s="19"/>
+      <c r="D35" s="19"/>
+      <c r="E35" s="19"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="19"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="19"/>
+      <c r="O35" s="19"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+      <c r="S35" s="19"/>
+      <c r="T35" s="19"/>
+      <c r="U35" s="19"/>
+      <c r="V35" s="19"/>
+      <c r="W35" s="19"/>
+      <c r="X35" s="19"/>
+      <c r="Y35" s="19"/>
+      <c r="Z35" s="19"/>
+      <c r="AA35" s="19"/>
+      <c r="AB35" s="19"/>
+      <c r="AC35" s="19"/>
+      <c r="AD35" s="19"/>
+      <c r="AE35" s="19"/>
+      <c r="AF35" s="19"/>
+      <c r="AG35" s="19"/>
+      <c r="AH35" s="19"/>
+      <c r="AI35" s="19"/>
+      <c r="AJ35" s="19"/>
+      <c r="AK35" s="19"/>
+      <c r="AL35" s="19"/>
+      <c r="AM35" s="19"/>
+      <c r="AN35" s="19"/>
+      <c r="AO35" s="19"/>
+      <c r="AP35" s="19"/>
+    </row>
+    <row r="36" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="19"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+      <c r="S36" s="19"/>
+      <c r="T36" s="19"/>
+      <c r="U36" s="19"/>
+      <c r="V36" s="19"/>
+      <c r="W36" s="19"/>
+      <c r="X36" s="19"/>
+      <c r="Y36" s="19"/>
+      <c r="Z36" s="19"/>
+      <c r="AA36" s="19"/>
+      <c r="AB36" s="19"/>
+      <c r="AC36" s="19"/>
+      <c r="AD36" s="19"/>
+      <c r="AE36" s="19"/>
+      <c r="AF36" s="19"/>
+      <c r="AG36" s="19"/>
+      <c r="AH36" s="19"/>
+      <c r="AI36" s="19"/>
+      <c r="AJ36" s="19"/>
+      <c r="AK36" s="19"/>
+      <c r="AL36" s="19"/>
+      <c r="AM36" s="19"/>
+      <c r="AN36" s="19"/>
+      <c r="AO36" s="19"/>
+      <c r="AP36" s="19"/>
+    </row>
+    <row r="37" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A37" s="19"/>
+      <c r="B37" s="19"/>
+      <c r="C37" s="19"/>
+      <c r="D37" s="19"/>
+      <c r="E37" s="19"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="19"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="19"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
+      <c r="S37" s="19"/>
+      <c r="T37" s="19"/>
+      <c r="U37" s="19"/>
+      <c r="V37" s="19"/>
+      <c r="W37" s="19"/>
+      <c r="X37" s="19"/>
+      <c r="Y37" s="19"/>
+      <c r="Z37" s="19"/>
+      <c r="AA37" s="19"/>
+      <c r="AB37" s="19"/>
+      <c r="AC37" s="19"/>
+      <c r="AD37" s="19"/>
+      <c r="AE37" s="19"/>
+      <c r="AF37" s="19"/>
+      <c r="AG37" s="19"/>
+      <c r="AH37" s="19"/>
+      <c r="AI37" s="19"/>
+      <c r="AJ37" s="19"/>
+      <c r="AK37" s="19"/>
+      <c r="AL37" s="19"/>
+      <c r="AM37" s="19"/>
+      <c r="AN37" s="19"/>
+      <c r="AO37" s="19"/>
+      <c r="AP37" s="19"/>
+    </row>
+    <row r="38" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A38" s="19"/>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="S38" s="19"/>
+      <c r="T38" s="19"/>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AB38" s="19"/>
+      <c r="AC38" s="19"/>
+      <c r="AD38" s="19"/>
+      <c r="AE38" s="19"/>
+      <c r="AF38" s="19"/>
+      <c r="AG38" s="19"/>
+      <c r="AH38" s="19"/>
+      <c r="AI38" s="19"/>
+      <c r="AJ38" s="19"/>
+      <c r="AK38" s="19"/>
+      <c r="AL38" s="19"/>
+      <c r="AM38" s="19"/>
+      <c r="AN38" s="19"/>
+      <c r="AO38" s="19"/>
+      <c r="AP38" s="19"/>
+    </row>
+    <row r="39" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A39" s="19"/>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="19"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+      <c r="V39" s="21"/>
+      <c r="W39" s="21"/>
+      <c r="X39" s="21"/>
+      <c r="Y39" s="19"/>
+      <c r="Z39" s="19"/>
+      <c r="AA39" s="19"/>
+      <c r="AB39" s="19"/>
+      <c r="AC39" s="19"/>
+      <c r="AD39" s="19"/>
+      <c r="AE39" s="19"/>
+      <c r="AF39" s="19"/>
+      <c r="AG39" s="19"/>
+      <c r="AH39" s="19"/>
+      <c r="AI39" s="19"/>
+      <c r="AJ39" s="19"/>
+      <c r="AK39" s="19"/>
+      <c r="AL39" s="19"/>
+      <c r="AM39" s="19"/>
+      <c r="AN39" s="19"/>
+      <c r="AO39" s="19"/>
+      <c r="AP39" s="19"/>
+    </row>
+    <row r="40" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A40" s="19"/>
+      <c r="B40" s="19"/>
+      <c r="C40" s="19"/>
+      <c r="D40" s="19"/>
+      <c r="E40" s="19"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="19"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+      <c r="V40" s="21"/>
+      <c r="W40" s="21"/>
+      <c r="X40" s="21"/>
+      <c r="Y40" s="19"/>
+      <c r="Z40" s="19"/>
+      <c r="AA40" s="19"/>
+      <c r="AB40" s="19"/>
+      <c r="AC40" s="19"/>
+      <c r="AD40" s="19"/>
+      <c r="AE40" s="19"/>
+      <c r="AF40" s="19"/>
+      <c r="AG40" s="19"/>
+      <c r="AH40" s="19"/>
+      <c r="AI40" s="19"/>
+      <c r="AJ40" s="19"/>
+      <c r="AK40" s="19"/>
+      <c r="AL40" s="19"/>
+      <c r="AM40" s="19"/>
+      <c r="AN40" s="19"/>
+      <c r="AO40" s="19"/>
+      <c r="AP40" s="19"/>
+    </row>
+    <row r="41" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A41" s="19"/>
+      <c r="B41" s="19"/>
+      <c r="C41" s="19"/>
+      <c r="D41" s="19"/>
+      <c r="E41" s="19"/>
+      <c r="F41" s="19"/>
+      <c r="G41" s="19"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+      <c r="V41" s="21"/>
+      <c r="W41" s="21"/>
+      <c r="X41" s="21"/>
+      <c r="Y41" s="19"/>
+      <c r="Z41" s="19"/>
+      <c r="AA41" s="19"/>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="19"/>
+      <c r="AD41" s="19"/>
+      <c r="AE41" s="19"/>
+      <c r="AF41" s="19"/>
+      <c r="AG41" s="19"/>
+      <c r="AH41" s="19"/>
+      <c r="AI41" s="19"/>
+      <c r="AJ41" s="19"/>
+      <c r="AK41" s="19"/>
+      <c r="AL41" s="19"/>
+      <c r="AM41" s="19"/>
+      <c r="AN41" s="19"/>
+      <c r="AO41" s="19"/>
+      <c r="AP41" s="19"/>
+    </row>
+    <row r="42" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="A42" s="19"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+      <c r="V42" s="21"/>
+      <c r="W42" s="21"/>
+      <c r="X42" s="21"/>
+      <c r="Y42" s="19"/>
+      <c r="Z42" s="19"/>
+      <c r="AA42" s="19"/>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="19"/>
+      <c r="AD42" s="19"/>
+      <c r="AE42" s="19"/>
+      <c r="AF42" s="19"/>
+      <c r="AG42" s="19"/>
+      <c r="AH42" s="19"/>
+      <c r="AI42" s="19"/>
+      <c r="AJ42" s="19"/>
+      <c r="AK42" s="19"/>
+      <c r="AL42" s="19"/>
+      <c r="AM42" s="19"/>
+      <c r="AN42" s="19"/>
+      <c r="AO42" s="19"/>
+      <c r="AP42" s="19"/>
+    </row>
+    <row r="43" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B43" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="12"/>
+      <c r="T43" s="12"/>
+      <c r="U43" s="12"/>
+      <c r="V43" s="12"/>
+      <c r="W43" s="12"/>
+      <c r="X43" s="12"/>
+      <c r="Y43" s="12"/>
+      <c r="Z43" s="12"/>
+      <c r="AA43" s="12"/>
+      <c r="AB43" s="12"/>
+      <c r="AC43" s="12"/>
+      <c r="AD43" s="12"/>
+      <c r="AE43" s="12"/>
+      <c r="AF43" s="12"/>
+      <c r="AG43" s="12"/>
+      <c r="AH43" s="12"/>
+      <c r="AI43" s="12"/>
+      <c r="AJ43" s="12"/>
+      <c r="AK43" s="12"/>
+      <c r="AL43" s="12"/>
+      <c r="AM43" s="13"/>
+    </row>
+    <row r="44" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B44" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="14"/>
+      <c r="F44" s="14"/>
+      <c r="G44" s="14"/>
+      <c r="H44" s="14"/>
+      <c r="I44" s="14"/>
+      <c r="J44" s="14"/>
+      <c r="K44" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="L44" s="16"/>
+      <c r="M44" s="16"/>
+      <c r="N44" s="16"/>
+      <c r="O44" s="16"/>
+      <c r="P44" s="17"/>
+      <c r="Q44" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="R44" s="16"/>
+      <c r="S44" s="16"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
+      <c r="W44" s="16"/>
+      <c r="X44" s="16"/>
+      <c r="Y44" s="16"/>
+      <c r="Z44" s="16"/>
+      <c r="AA44" s="16"/>
+      <c r="AB44" s="16"/>
+      <c r="AC44" s="16"/>
+      <c r="AD44" s="16"/>
+      <c r="AE44" s="16"/>
+      <c r="AF44" s="16"/>
+      <c r="AG44" s="16"/>
+      <c r="AH44" s="16"/>
+      <c r="AI44" s="16"/>
+      <c r="AJ44" s="16"/>
+      <c r="AK44" s="16"/>
+      <c r="AL44" s="16"/>
+      <c r="AM44" s="17"/>
+    </row>
+    <row r="45" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B45" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="18"/>
+      <c r="D45" s="18"/>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="L45" s="16"/>
+      <c r="M45" s="16"/>
+      <c r="N45" s="16"/>
+      <c r="O45" s="16"/>
+      <c r="P45" s="17"/>
+      <c r="Q45" s="15"/>
+      <c r="R45" s="16"/>
+      <c r="S45" s="16"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
+      <c r="W45" s="16"/>
+      <c r="X45" s="16"/>
+      <c r="Y45" s="16"/>
+      <c r="Z45" s="16"/>
+      <c r="AA45" s="16"/>
+      <c r="AB45" s="16"/>
+      <c r="AC45" s="16"/>
+      <c r="AD45" s="16"/>
+      <c r="AE45" s="16"/>
+      <c r="AF45" s="16"/>
+      <c r="AG45" s="16"/>
+      <c r="AH45" s="16"/>
+      <c r="AI45" s="16"/>
+      <c r="AJ45" s="16"/>
+      <c r="AK45" s="16"/>
+      <c r="AL45" s="16"/>
+      <c r="AM45" s="17"/>
+    </row>
+    <row r="46" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B46" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C46" s="18"/>
+      <c r="D46" s="18"/>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="L46" s="16"/>
+      <c r="M46" s="16"/>
+      <c r="N46" s="16"/>
+      <c r="O46" s="16"/>
+      <c r="P46" s="17"/>
+      <c r="Q46" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="R46" s="16"/>
+      <c r="S46" s="16"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
+      <c r="W46" s="16"/>
+      <c r="X46" s="16"/>
+      <c r="Y46" s="16"/>
+      <c r="Z46" s="16"/>
+      <c r="AA46" s="16"/>
+      <c r="AB46" s="16"/>
+      <c r="AC46" s="16"/>
+      <c r="AD46" s="16"/>
+      <c r="AE46" s="16"/>
+      <c r="AF46" s="16"/>
+      <c r="AG46" s="16"/>
+      <c r="AH46" s="16"/>
+      <c r="AI46" s="16"/>
+      <c r="AJ46" s="16"/>
+      <c r="AK46" s="16"/>
+      <c r="AL46" s="16"/>
+      <c r="AM46" s="17"/>
+    </row>
+    <row r="47" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B47" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="14"/>
+      <c r="G47" s="14"/>
+      <c r="H47" s="14"/>
+      <c r="I47" s="14"/>
+      <c r="J47" s="14"/>
+      <c r="K47" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="L47" s="16"/>
+      <c r="M47" s="16"/>
+      <c r="N47" s="16"/>
+      <c r="O47" s="16"/>
+      <c r="P47" s="17"/>
+      <c r="Q47" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="R47" s="16"/>
+      <c r="S47" s="16"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
+      <c r="W47" s="16"/>
+      <c r="X47" s="16"/>
+      <c r="Y47" s="16"/>
+      <c r="Z47" s="16"/>
+      <c r="AA47" s="16"/>
+      <c r="AB47" s="16"/>
+      <c r="AC47" s="16"/>
+      <c r="AD47" s="16"/>
+      <c r="AE47" s="16"/>
+      <c r="AF47" s="16"/>
+      <c r="AG47" s="16"/>
+      <c r="AH47" s="16"/>
+      <c r="AI47" s="16"/>
+      <c r="AJ47" s="16"/>
+      <c r="AK47" s="16"/>
+      <c r="AL47" s="16"/>
+      <c r="AM47" s="17"/>
+    </row>
+    <row r="48" spans="1:42" x14ac:dyDescent="0.4">
+      <c r="B48" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="17"/>
+      <c r="Q48" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+      <c r="W48" s="16"/>
+      <c r="X48" s="16"/>
+      <c r="Y48" s="16"/>
+      <c r="Z48" s="16"/>
+      <c r="AA48" s="16"/>
+      <c r="AB48" s="16"/>
+      <c r="AC48" s="16"/>
+      <c r="AD48" s="16"/>
+      <c r="AE48" s="16"/>
+      <c r="AF48" s="16"/>
+      <c r="AG48" s="16"/>
+      <c r="AH48" s="16"/>
+      <c r="AI48" s="16"/>
+      <c r="AJ48" s="16"/>
+      <c r="AK48" s="16"/>
+      <c r="AL48" s="16"/>
+      <c r="AM48" s="17"/>
+    </row>
+    <row r="49" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B49" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="L49" s="16"/>
+      <c r="M49" s="16"/>
+      <c r="N49" s="16"/>
+      <c r="O49" s="16"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="15"/>
+      <c r="R49" s="16"/>
+      <c r="S49" s="16"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
+      <c r="W49" s="16"/>
+      <c r="X49" s="16"/>
+      <c r="Y49" s="16"/>
+      <c r="Z49" s="16"/>
+      <c r="AA49" s="16"/>
+      <c r="AB49" s="16"/>
+      <c r="AC49" s="16"/>
+      <c r="AD49" s="16"/>
+      <c r="AE49" s="16"/>
+      <c r="AF49" s="16"/>
+      <c r="AG49" s="16"/>
+      <c r="AH49" s="16"/>
+      <c r="AI49" s="16"/>
+      <c r="AJ49" s="16"/>
+      <c r="AK49" s="16"/>
+      <c r="AL49" s="16"/>
+      <c r="AM49" s="17"/>
+    </row>
+    <row r="50" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B50" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" s="18"/>
+      <c r="D50" s="18"/>
+      <c r="E50" s="18"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="L50" s="16"/>
+      <c r="M50" s="16"/>
+      <c r="N50" s="16"/>
+      <c r="O50" s="16"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="R50" s="16"/>
+      <c r="S50" s="16"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
+      <c r="W50" s="16"/>
+      <c r="X50" s="16"/>
+      <c r="Y50" s="16"/>
+      <c r="Z50" s="16"/>
+      <c r="AA50" s="16"/>
+      <c r="AB50" s="16"/>
+      <c r="AC50" s="16"/>
+      <c r="AD50" s="16"/>
+      <c r="AE50" s="16"/>
+      <c r="AF50" s="16"/>
+      <c r="AG50" s="16"/>
+      <c r="AH50" s="16"/>
+      <c r="AI50" s="16"/>
+      <c r="AJ50" s="16"/>
+      <c r="AK50" s="16"/>
+      <c r="AL50" s="16"/>
+      <c r="AM50" s="17"/>
+    </row>
+    <row r="51" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B51" s="18"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="18"/>
+      <c r="E51" s="18"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="18"/>
+      <c r="I51" s="18"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="15"/>
+      <c r="L51" s="16"/>
+      <c r="M51" s="16"/>
+      <c r="N51" s="16"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="17"/>
+      <c r="Q51" s="15"/>
+      <c r="R51" s="16"/>
+      <c r="S51" s="16"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
+      <c r="W51" s="16"/>
+      <c r="X51" s="16"/>
+      <c r="Y51" s="16"/>
+      <c r="Z51" s="16"/>
+      <c r="AA51" s="16"/>
+      <c r="AB51" s="16"/>
+      <c r="AC51" s="16"/>
+      <c r="AD51" s="16"/>
+      <c r="AE51" s="16"/>
+      <c r="AF51" s="16"/>
+      <c r="AG51" s="16"/>
+      <c r="AH51" s="16"/>
+      <c r="AI51" s="16"/>
+      <c r="AJ51" s="16"/>
+      <c r="AK51" s="16"/>
+      <c r="AL51" s="16"/>
+      <c r="AM51" s="17"/>
+    </row>
+    <row r="52" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B52" s="18"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="18"/>
+      <c r="E52" s="18"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="18"/>
+      <c r="I52" s="18"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="15"/>
+      <c r="L52" s="16"/>
+      <c r="M52" s="16"/>
+      <c r="N52" s="16"/>
+      <c r="O52" s="16"/>
+      <c r="P52" s="17"/>
+      <c r="Q52" s="15"/>
+      <c r="R52" s="16"/>
+      <c r="S52" s="16"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
+      <c r="W52" s="16"/>
+      <c r="X52" s="16"/>
+      <c r="Y52" s="16"/>
+      <c r="Z52" s="16"/>
+      <c r="AA52" s="16"/>
+      <c r="AB52" s="16"/>
+      <c r="AC52" s="16"/>
+      <c r="AD52" s="16"/>
+      <c r="AE52" s="16"/>
+      <c r="AF52" s="16"/>
+      <c r="AG52" s="16"/>
+      <c r="AH52" s="16"/>
+      <c r="AI52" s="16"/>
+      <c r="AJ52" s="16"/>
+      <c r="AK52" s="16"/>
+      <c r="AL52" s="16"/>
+      <c r="AM52" s="17"/>
+    </row>
+    <row r="53" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B53" s="18"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="18"/>
+      <c r="E53" s="18"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="18"/>
+      <c r="I53" s="18"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="15"/>
+      <c r="L53" s="16"/>
+      <c r="M53" s="16"/>
+      <c r="N53" s="16"/>
+      <c r="O53" s="16"/>
+      <c r="P53" s="17"/>
+      <c r="Q53" s="15"/>
+      <c r="R53" s="16"/>
+      <c r="S53" s="16"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
+      <c r="W53" s="16"/>
+      <c r="X53" s="16"/>
+      <c r="Y53" s="16"/>
+      <c r="Z53" s="16"/>
+      <c r="AA53" s="16"/>
+      <c r="AB53" s="16"/>
+      <c r="AC53" s="16"/>
+      <c r="AD53" s="16"/>
+      <c r="AE53" s="16"/>
+      <c r="AF53" s="16"/>
+      <c r="AG53" s="16"/>
+      <c r="AH53" s="16"/>
+      <c r="AI53" s="16"/>
+      <c r="AJ53" s="16"/>
+      <c r="AK53" s="16"/>
+      <c r="AL53" s="16"/>
+      <c r="AM53" s="17"/>
+    </row>
+    <row r="54" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B54" s="18"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="18"/>
+      <c r="E54" s="18"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="15"/>
+      <c r="L54" s="16"/>
+      <c r="M54" s="16"/>
+      <c r="N54" s="16"/>
+      <c r="O54" s="16"/>
+      <c r="P54" s="17"/>
+      <c r="Q54" s="15"/>
+      <c r="R54" s="16"/>
+      <c r="S54" s="16"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
+      <c r="W54" s="16"/>
+      <c r="X54" s="16"/>
+      <c r="Y54" s="16"/>
+      <c r="Z54" s="16"/>
+      <c r="AA54" s="16"/>
+      <c r="AB54" s="16"/>
+      <c r="AC54" s="16"/>
+      <c r="AD54" s="16"/>
+      <c r="AE54" s="16"/>
+      <c r="AF54" s="16"/>
+      <c r="AG54" s="16"/>
+      <c r="AH54" s="16"/>
+      <c r="AI54" s="16"/>
+      <c r="AJ54" s="16"/>
+      <c r="AK54" s="16"/>
+      <c r="AL54" s="16"/>
+      <c r="AM54" s="17"/>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="15"/>
+      <c r="L55" s="16"/>
+      <c r="M55" s="16"/>
+      <c r="N55" s="16"/>
+      <c r="O55" s="16"/>
+      <c r="P55" s="17"/>
+      <c r="Q55" s="15"/>
+      <c r="R55" s="16"/>
+      <c r="S55" s="16"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
+      <c r="W55" s="16"/>
+      <c r="X55" s="16"/>
+      <c r="Y55" s="16"/>
+      <c r="Z55" s="16"/>
+      <c r="AA55" s="16"/>
+      <c r="AB55" s="16"/>
+      <c r="AC55" s="16"/>
+      <c r="AD55" s="16"/>
+      <c r="AE55" s="16"/>
+      <c r="AF55" s="16"/>
+      <c r="AG55" s="16"/>
+      <c r="AH55" s="16"/>
+      <c r="AI55" s="16"/>
+      <c r="AJ55" s="16"/>
+      <c r="AK55" s="16"/>
+      <c r="AL55" s="16"/>
+      <c r="AM55" s="17"/>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.4">
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="15"/>
+      <c r="L56" s="16"/>
+      <c r="M56" s="16"/>
+      <c r="N56" s="16"/>
+      <c r="O56" s="16"/>
+      <c r="P56" s="17"/>
+      <c r="Q56" s="15"/>
+      <c r="R56" s="16"/>
+      <c r="S56" s="16"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
+      <c r="W56" s="16"/>
+      <c r="X56" s="16"/>
+      <c r="Y56" s="16"/>
+      <c r="Z56" s="16"/>
+      <c r="AA56" s="16"/>
+      <c r="AB56" s="16"/>
+      <c r="AC56" s="16"/>
+      <c r="AD56" s="16"/>
+      <c r="AE56" s="16"/>
+      <c r="AF56" s="16"/>
+      <c r="AG56" s="16"/>
+      <c r="AH56" s="16"/>
+      <c r="AI56" s="16"/>
+      <c r="AJ56" s="16"/>
+      <c r="AK56" s="16"/>
+      <c r="AL56" s="16"/>
+      <c r="AM56" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="42">
+    <mergeCell ref="B55:J55"/>
+    <mergeCell ref="K55:P55"/>
+    <mergeCell ref="Q55:AM55"/>
+    <mergeCell ref="B56:J56"/>
+    <mergeCell ref="K56:P56"/>
+    <mergeCell ref="Q56:AM56"/>
+    <mergeCell ref="B53:J53"/>
+    <mergeCell ref="K53:P53"/>
+    <mergeCell ref="Q53:AM53"/>
+    <mergeCell ref="B54:J54"/>
+    <mergeCell ref="K54:P54"/>
+    <mergeCell ref="Q54:AM54"/>
+    <mergeCell ref="B51:J51"/>
+    <mergeCell ref="K51:P51"/>
+    <mergeCell ref="Q51:AM51"/>
+    <mergeCell ref="B52:J52"/>
+    <mergeCell ref="K52:P52"/>
+    <mergeCell ref="Q52:AM52"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="K49:P49"/>
+    <mergeCell ref="Q49:AM49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="K50:P50"/>
+    <mergeCell ref="Q50:AM50"/>
+    <mergeCell ref="B47:J47"/>
+    <mergeCell ref="K47:P47"/>
+    <mergeCell ref="Q47:AM47"/>
+    <mergeCell ref="B48:J48"/>
+    <mergeCell ref="K48:P48"/>
+    <mergeCell ref="Q48:AM48"/>
+    <mergeCell ref="B45:J45"/>
+    <mergeCell ref="K45:P45"/>
+    <mergeCell ref="Q45:AM45"/>
+    <mergeCell ref="B46:J46"/>
+    <mergeCell ref="K46:P46"/>
+    <mergeCell ref="Q46:AM46"/>
+    <mergeCell ref="B43:J43"/>
+    <mergeCell ref="K43:P43"/>
+    <mergeCell ref="Q43:AM43"/>
+    <mergeCell ref="B44:J44"/>
+    <mergeCell ref="K44:P44"/>
+    <mergeCell ref="Q44:AM44"/>
+  </mergeCells>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="62" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="F2:AU61"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -14325,12 +19141,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:BX125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="BW53" sqref="BW53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AU43" sqref="AU43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
